--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R65261e88ec3949b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R1c05061b612a4d5d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -91,6 +91,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -136,6 +138,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
   </c:chart>
 </c:chartSpace>
@@ -167,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6b7f2ada775e447f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38d7a3ee886a410a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -244,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf6e79a5ba7734e4a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bd611c9f0774d12"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R1c05061b612a4d5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Re3a1a6bc26fb43ca"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38d7a3ee886a410a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3e0b965f2f64e05"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bd611c9f0774d12"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56db0d75516e43fe"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Re3a1a6bc26fb43ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R26309171e9f545c1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3e0b965f2f64e05"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c11d87816c24d76"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56db0d75516e43fe"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9be2171317e48a6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R26309171e9f545c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Refb145ad7f3146b9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c11d87816c24d76"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6ee45f3e2af94969"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9be2171317e48a6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R022c797b074548cb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Refb145ad7f3146b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd10f8361866441d8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6ee45f3e2af94969"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61b1f44b3bda4eb4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R022c797b074548cb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb08cb24f197740c2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd10f8361866441d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R412a1f2b27034729"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61b1f44b3bda4eb4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6b4dad98dd454abb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb08cb24f197740c2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R96c2d2f240334221"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R412a1f2b27034729"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R05f838810bb74beb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -171,7 +171,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6b4dad98dd454abb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R629b6a8662824d39"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +248,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R96c2d2f240334221"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1e19bca6d7854193"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R05f838810bb74beb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd5ff598aafaf4001"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -171,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R629b6a8662824d39"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra36ce500cb6d4e97"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -248,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1e19bca6d7854193"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc6ed6a368a434618"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd5ff598aafaf4001"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Ra83f3193b4454957"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra36ce500cb6d4e97"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f79aef9532a4931"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc6ed6a368a434618"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c494056aed74493"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Ra83f3193b4454957"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R243fe50c1f8240e7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f79aef9532a4931"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc1ffa7f0219f4195"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2c494056aed74493"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd38bedab666843da"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R243fe50c1f8240e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Raff0ce92d8594846"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc1ffa7f0219f4195"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3f76529db444725"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd38bedab666843da"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87dbc06f14af4834"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Raff0ce92d8594846"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R96aa9d7362e748a0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf3f76529db444725"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfdd1308ef7bf450a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R87dbc06f14af4834"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R445b754cb1eb4e1d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R96aa9d7362e748a0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R234f5793867d4e1b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfdd1308ef7bf450a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc1dc1cba52e44e07"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R445b754cb1eb4e1d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra40f446f3eac4c6b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R234f5793867d4e1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R1d7da1ba322440f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc1dc1cba52e44e07"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf33efcce75d04bf6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra40f446f3eac4c6b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3563067b3cfb48c0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R1d7da1ba322440f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R383d88abf2834e1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf33efcce75d04bf6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R69eed2ebfa494b81"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3563067b3cfb48c0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R47afe02b2d404439"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R383d88abf2834e1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rad4149d87fef449a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R69eed2ebfa494b81"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f8c03cf50694677"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R47afe02b2d404439"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ea0b2e809644e7d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rad4149d87fef449a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rbe1fe7a926e740a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f8c03cf50694677"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47a90ddcb88a4e42"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3ea0b2e809644e7d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad71bac1bd5346fb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rbe1fe7a926e740a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rc7c6d9f2fa4144d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R47a90ddcb88a4e42"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc656d347322e479c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad71bac1bd5346fb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ref9accb6071e44e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rc7c6d9f2fa4144d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Ra9d06c5bd9da48b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc656d347322e479c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb23e83808fde4948"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ref9accb6071e44e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R124020b6ccb94691"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Ra9d06c5bd9da48b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R680fb92e8a414b92"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb23e83808fde4948"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7154b00319c4510"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R124020b6ccb94691"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rae1553c35e484902"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R680fb92e8a414b92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rcde58d49e1a44345"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7154b00319c4510"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8244c0f41519461f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rae1553c35e484902"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc084f10057354283"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rcde58d49e1a44345"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Raf386bc910dd4ed0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8244c0f41519461f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e8b5d6e9e9a4726"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc084f10057354283"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra437f2a4f9f64870"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Raf386bc910dd4ed0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rfd92e8cb2e1145bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e8b5d6e9e9a4726"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6a80e991e73d439b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra437f2a4f9f64870"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdfb364c69c4547a2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rfd92e8cb2e1145bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R4361119e7d664cba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6a80e991e73d439b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c222e82bec345e4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdfb364c69c4547a2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62198af346cd4a97"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R4361119e7d664cba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R6168f0d501c84130"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c222e82bec345e4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc3e41d813089494a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62198af346cd4a97"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re5f230347b9b441d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R6168f0d501c84130"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rf5dc12f27f164688"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc3e41d813089494a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rae42dd92892a4ba1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re5f230347b9b441d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1960abadd62b4651"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rf5dc12f27f164688"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd88b98965b4c46e7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rae42dd92892a4ba1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R37ce1e13c9dc4583"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1960abadd62b4651"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde9233360d7a409e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rd88b98965b4c46e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R025d5149724445c1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R37ce1e13c9dc4583"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb34f741808af49b2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +249,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde9233360d7a409e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raeb09c9038b7411c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R025d5149724445c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R94d8081b419747f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -103,6 +103,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'Correlation Data'!$A$2:$A$8</c:f>
@@ -172,7 +175,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb34f741808af49b2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbb83dabe06864f68"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -249,6 +252,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raeb09c9038b7411c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4748d4f71564f07"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R94d8081b419747f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R310d8dab5fdf4ff4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -175,7 +175,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbb83dabe06864f68"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd10c2ae1ac4f487b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -252,6 +252,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4748d4f71564f07"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cc480aaab9c443b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R310d8dab5fdf4ff4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R5773a0fe8a704c08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -175,7 +175,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd10c2ae1ac4f487b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15f7d3ec6c0040fc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -252,6 +252,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cc480aaab9c443b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R25bc51ebb78b4581"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R5773a0fe8a704c08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R674364c6f6ba42af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -175,7 +175,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15f7d3ec6c0040fc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1619669d289a4246"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -252,6 +252,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R25bc51ebb78b4581"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2617b26842e84639"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R674364c6f6ba42af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R60ead6ba1ee54988"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -175,7 +175,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1619669d289a4246"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c99cea786ed48f9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -252,6 +252,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2617b26842e84639"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2287ac130394dae"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R60ead6ba1ee54988"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R22848ed79a9e42c8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -175,7 +175,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c99cea786ed48f9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R52c9faa7b1b74913"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -252,6 +252,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra2287ac130394dae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd236ff7e40304919"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/44_ScatterChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="R22848ed79a9e42c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation Data" sheetId="1" r:id="Rbe4efd20f97e47d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -117,6 +117,14 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:scatterChart>
@@ -175,7 +183,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R52c9faa7b1b74913"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1fcd8243fe714727"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -252,6 +260,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd236ff7e40304919"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reaca3a886d1c4a64"/>
 </x:worksheet>
 </file>